--- a/09_IMA/MORGAN/Results/results_RQ2/HEPSYCODE/results_RQ2_class.xlsx
+++ b/09_IMA/MORGAN/Results/results_RQ2/HEPSYCODE/results_RQ2_class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\modelingOperationRec_ASE\IMA\results_RQ2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\modelingOperationRec_IST\09_IMA\MORGAN\Results\results_RQ2\HEPSYCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1EE325-5A60-4688-B98C-01CC6E91127D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBACFB95-465C-4F3D-AA33-1A99FB8C11B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="47">
   <si>
     <t>dataset</t>
   </si>
@@ -75,13 +75,97 @@
     <t>feature</t>
   </si>
   <si>
-    <t>attrs</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
     <t>Mixed</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>D2-C.1.1</t>
+  </si>
+  <si>
+    <t>D2-C.2.1</t>
+  </si>
+  <si>
+    <t>D2-C.3.1</t>
+  </si>
+  <si>
+    <t>D2-C.1.2</t>
+  </si>
+  <si>
+    <t>D2-C.2.2</t>
+  </si>
+  <si>
+    <t>D2-C.3.2</t>
+  </si>
+  <si>
+    <t>D2-C.1.3</t>
+  </si>
+  <si>
+    <t>D2-C.2.3</t>
+  </si>
+  <si>
+    <t>D2-C.3.3</t>
+  </si>
+  <si>
+    <t>D1-C.1.1</t>
+  </si>
+  <si>
+    <t>D1-C.2.1</t>
+  </si>
+  <si>
+    <t>D1-C.3.1</t>
+  </si>
+  <si>
+    <t>D1-C.1.2</t>
+  </si>
+  <si>
+    <t>D1-C.2.2</t>
+  </si>
+  <si>
+    <t>D1-C.3.2</t>
+  </si>
+  <si>
+    <t>D1-C.1.3</t>
+  </si>
+  <si>
+    <t>D1-C.2.3</t>
+  </si>
+  <si>
+    <t>D1-C.3.3</t>
+  </si>
+  <si>
+    <t>Dm05-C.1.1</t>
+  </si>
+  <si>
+    <t>Dm05-C.2.1</t>
+  </si>
+  <si>
+    <t>Dm05-C.3.1</t>
+  </si>
+  <si>
+    <t>Dm05-C.1.2</t>
+  </si>
+  <si>
+    <t>Dm05-C.2.2</t>
+  </si>
+  <si>
+    <t>Dm05-C.3.2</t>
+  </si>
+  <si>
+    <t>Dm05-C.1.3</t>
+  </si>
+  <si>
+    <t>Dm05-C.2.3</t>
+  </si>
+  <si>
+    <t>Dm05-C.3.3</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -399,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132:J136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,11 +495,12 @@
     <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -432,24 +517,27 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -463,25 +551,28 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
         <v>43.589743589743499</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>26.8559218559218</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>29.608511146972599</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4.8146321223332303E-2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>7.5363555871523298</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -495,25 +586,28 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
         <v>44.4444444444444</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>26.316137566137499</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>31.269841269841201</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4.4702788194020501E-2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10.0579363306363</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -527,25 +621,28 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
         <v>36.1111111111111</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>20.5125661375661</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>25.126262626262601</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4.6014587084452302E-2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>7.0774968862533498</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -559,25 +656,28 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
         <v>43.589743589743499</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>23.1065088757396</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>27.905297317062001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4.7797991679264899E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>14.130746034475401</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -591,25 +691,28 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
         <v>33.3333333333333</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>15.0198412698412</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>20.038850038850001</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4.8069159189860003E-2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>10.5839890241622</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -623,25 +726,28 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
         <v>32.307692307692299</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>27.3687423687423</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>28.6734180851827</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4.35903622553898E-2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>7.8992404204148503</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -655,25 +761,28 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
         <v>45</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>28.0672799422799</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>33.9960937755055</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4.7120193640391002E-2</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>12.490889430046</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -687,25 +796,28 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
         <v>25</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>17.311507936507901</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>20.205720205720201</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4.4769386450449603E-2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>7.2049330075581803</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -719,25 +831,28 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
         <v>36.923076923076898</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>24.766600920447001</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>28.897768897768799</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4.8007378211388202E-2</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>13.6444264191847</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -751,25 +866,28 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11">
         <v>43.3333333333333</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>28.106962481962402</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>32.596153846153797</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4.8424303531646701E-2</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>14.8398528297742</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -783,25 +901,28 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12">
         <v>23.3333333333333</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>34.101731601731601</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>27.156707127295299</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4.9420722325642902E-2</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>8.8526523272196407</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -815,25 +936,28 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
         <v>29.1666666666666</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>45.099206349206298</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>33.595938375350102</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>4.8395991325378397E-2</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>15.779744307200099</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -847,25 +971,28 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
         <v>27.5</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>42.713744588744497</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>31.632430750077798</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4.4417182604471799E-2</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>8.5659808516502292</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -879,25 +1006,28 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15">
         <v>26.428571428571399</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>31.3876004947433</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>27.448382861916699</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4.8263021877833698E-2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>13.8544490848268</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -911,25 +1041,28 @@
       <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
         <v>30.769230769230699</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>41.987179487179397</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>33.925217832100401</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4.3405789595383798E-2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>14.6688529161306</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -943,25 +1076,28 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17">
         <v>33.3333333333333</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>9.9808524808524801</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>14.893673577884099</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4.7511707652698798E-2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>8.0687393925406692</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -975,25 +1111,28 @@
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18">
         <v>37.499999999999901</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>12.589285714285699</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>18.428373097490699</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>4.5983910560607903E-2</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>5.4629315137863097</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1007,25 +1146,28 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19">
         <v>33.3333333333333</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>16.031746031746</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>18.8536953242835</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>4.2416228188408699E-2</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3.8682647546132398</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1039,25 +1181,28 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20">
         <v>44.4444444444444</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>21.478891478891398</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>26.653439153439098</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4.27427556779649E-2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>4.1197489897409998</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1071,25 +1216,28 @@
       <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21">
         <v>47.619047619047599</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>20.644514215942699</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>25.742296918767501</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5.0341538020542601E-2</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>9.3024396215166298</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1103,25 +1251,28 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22">
         <v>30.769230769230699</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>17.340706051113202</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>20.597605009369701</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>4.8234426058255703E-2</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>7.6708922202770502</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1135,25 +1286,28 @@
       <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23">
-        <v>46</v>
+      <c r="F23" t="s">
+        <v>23</v>
       </c>
       <c r="G23">
+        <v>46</v>
+      </c>
+      <c r="H23">
         <v>22.710084033613398</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>28.7731025424523</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4.4189906120300201E-2</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>9.1795681476592996</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1167,25 +1321,28 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24">
         <v>37.7777777777777</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>15.3296703296703</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>21.751328211596501</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>4.8409779866536398E-2</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>4.46783267127143</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1199,25 +1356,28 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25">
-        <v>46</v>
+      <c r="F25" t="s">
+        <v>23</v>
       </c>
       <c r="G25">
+        <v>46</v>
+      </c>
+      <c r="H25">
         <v>35.803030303030297</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>34.941535588594398</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4.7294569015502899E-2</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>4.7610577821731503</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1231,25 +1391,28 @@
       <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26">
         <v>44.4444444444444</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>24.259259259259199</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>29.683140312655201</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4.6374029583401102E-2</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>6.1788482666015598</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1263,25 +1426,28 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27">
         <v>31.538461538461501</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>33.484491514677202</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>29.646429747849599</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>4.4385818334726101E-2</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>5.7870729703169603</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1295,25 +1461,28 @@
       <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28">
         <v>43.636363636363598</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>47.970287288469102</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>43.428305815584103</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>4.4520768252286E-2</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>6.7711053328080597</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1327,25 +1496,28 @@
       <c r="E29" t="s">
         <v>11</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29">
         <v>30.8333333333333</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>25.674603174603099</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>27.613735393147099</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>4.8109292984008699E-2</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>4.4192101160685198</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1359,25 +1531,28 @@
       <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30">
         <v>29.090909090909001</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>36.080207671116703</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>29.702516412002499</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>4.5655380595813998E-2</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>4.2363403927196099</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1391,25 +1566,28 @@
       <c r="E31" t="s">
         <v>13</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31">
         <v>28.181818181818102</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>31.381673881673802</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>27.971706062333698</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>4.69390479001131E-2</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>9.4266353303735908</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1423,25 +1601,28 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32">
         <v>77.7777777777777</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>14.8611111111111</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>24.951267056530199</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>3.03845405578613E-2</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>4.6386012236277203</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1455,25 +1636,28 @@
       <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33">
         <v>44.4444444444444</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>8.1481481481481399</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>13.756613756613699</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>3.3957481384277302E-2</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>3.26741218566894</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -1487,25 +1671,28 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34">
         <v>77.7777777777777</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>14.9859943977591</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>25.0980392156862</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>3.64365577697753E-2</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>3.9802899360656698</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -1519,25 +1706,28 @@
       <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35">
         <v>66.6666666666666</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>12.605042016806699</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>21.176470588235201</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>3.6787033081054597E-2</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>2.7425475120544398</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -1551,25 +1741,28 @@
       <c r="E36" t="s">
         <v>13</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36">
         <v>77.7777777777777</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>14.8109243697479</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>24.860681114550999</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>3.3013025919596303E-2</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>5.2650194962819397</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -1583,25 +1776,28 @@
       <c r="E37" t="s">
         <v>9</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37">
         <v>63.3333333333333</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>23.985468722310799</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>34.126984126984098</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>4.9794435501098598E-2</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>2.5163189570108999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -1615,25 +1811,28 @@
       <c r="E38" t="s">
         <v>10</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38">
         <v>64</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>26.109082094376198</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>36.3116883116883</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>4.6221923828124997E-2</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>3.0970124244689901</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -1647,25 +1846,28 @@
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39">
         <v>56</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>21.279411764705799</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>30.502164502164501</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>4.7126054763793897E-2</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>3.42902526855468</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -1679,25 +1881,28 @@
       <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40">
         <v>60</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>25.644841269841201</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>34.994537626116497</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>4.5837720235188797E-2</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>4.7411852677663102</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -1711,25 +1916,28 @@
       <c r="E41" t="s">
         <v>13</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41">
         <v>55</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>21.008852258852201</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>29.8382522638815</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>3.87237668037414E-2</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>4.28080338239669</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -1743,25 +1951,28 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42">
         <v>35.5555555555555</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>35.350140056022397</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>33.177300549849498</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>4.62421311272515E-2</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>1.9992635250091499</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -1775,25 +1986,28 @@
       <c r="E43" t="s">
         <v>10</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43">
         <v>34.285714285714199</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>29.3405695611577</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>30.4306814043656</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>4.60625716618129E-2</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>3.8763822828020298</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -1807,25 +2021,28 @@
       <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44">
         <v>37.5</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>35.5034722222222</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>34.8281762097551</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>4.3000966310501099E-2</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>3.08664858341217</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -1839,25 +2056,28 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45">
         <v>28.75</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>21.1979166666666</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>24.010989010989</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>4.7429740428924498E-2</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>2.2035133838653498</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -1871,28 +2091,31 @@
       <c r="E46" t="s">
         <v>13</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46">
         <v>55</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>39.8575687584975</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>44.380587484035701</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>3.8952589035034103E-2</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>2.7811471621195398</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
       </c>
       <c r="C47">
         <v>0.2</v>
@@ -1903,28 +2126,31 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47">
         <v>52.7777777777777</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>25.813492063491999</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>33.027250527250501</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>5.7666043440500803E-2</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>14.2647016445795</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
       </c>
       <c r="C48">
         <v>0.2</v>
@@ -1935,28 +2161,31 @@
       <c r="E48" t="s">
         <v>10</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48">
         <v>72.727272727272705</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>32.0356158992522</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>43.746556473829202</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>6.0515902259133003E-2</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>21.9138333363966</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
         <v>16</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
       </c>
       <c r="C49">
         <v>0.2</v>
@@ -1967,28 +2196,31 @@
       <c r="E49" t="s">
         <v>11</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49">
         <v>47.2222222222222</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>25.863095238095202</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>32.034632034631997</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>5.4666241010030099E-2</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>14.782095253467499</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
         <v>16</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
       </c>
       <c r="C50">
         <v>0.2</v>
@@ -1999,28 +2231,31 @@
       <c r="E50" t="s">
         <v>12</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50">
         <v>59.523809523809497</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>37.202380952380899</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>41.546548689405803</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>6.0676983424595397E-2</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>17.695116417748501</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
         <v>16</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
       </c>
       <c r="C51">
         <v>0.2</v>
@@ -2031,28 +2266,31 @@
       <c r="E51" t="s">
         <v>13</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51">
         <v>66.6666666666666</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>29.8315018315018</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>39.587606837606799</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>5.8967208862304603E-2</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>25.7611591339111</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
         <v>16</v>
-      </c>
-      <c r="B52" t="s">
-        <v>17</v>
       </c>
       <c r="C52">
         <v>0.2</v>
@@ -2063,28 +2301,31 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52">
         <v>55</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>35.3472222222222</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>42.534965034964998</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>6.8011244138081794E-2</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>17.509136378765099</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
         <v>16</v>
-      </c>
-      <c r="B53" t="s">
-        <v>17</v>
       </c>
       <c r="C53">
         <v>0.2</v>
@@ -2095,28 +2336,31 @@
       <c r="E53" t="s">
         <v>10</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53">
         <v>61.6666666666666</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>41.524170274170203</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>48.614024864024799</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>5.61253031094869E-2</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>20.519160052140499</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
         <v>16</v>
-      </c>
-      <c r="B54" t="s">
-        <v>17</v>
       </c>
       <c r="C54">
         <v>0.2</v>
@@ -2127,28 +2371,31 @@
       <c r="E54" t="s">
         <v>11</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54">
         <v>46.153846153846096</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>30.8225108225108</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>36.522900176746298</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>5.9922218322753899E-2</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>22.436364265588601</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
         <v>16</v>
-      </c>
-      <c r="B55" t="s">
-        <v>17</v>
       </c>
       <c r="C55">
         <v>0.2</v>
@@ -2159,28 +2406,31 @@
       <c r="E55" t="s">
         <v>12</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55">
         <v>48.571428571428498</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>39.372690801262202</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>41.641156462585002</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>5.5550830704825201E-2</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>17.490415130342701</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
         <v>16</v>
-      </c>
-      <c r="B56" t="s">
-        <v>17</v>
       </c>
       <c r="C56">
         <v>0.2</v>
@@ -2191,28 +2441,31 @@
       <c r="E56" t="s">
         <v>13</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56">
         <v>58.181818181818102</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>39.207988980716202</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>45.664865437592702</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>5.62992529435591E-2</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>23.285733266310199</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
         <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
       </c>
       <c r="C57">
         <v>0.2</v>
@@ -2223,28 +2476,31 @@
       <c r="E57" t="s">
         <v>9</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57">
         <v>68.3333333333333</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>61.835941835941803</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>63.5728558880732</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>5.6703885396321603E-2</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>24.147280971209199</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
         <v>16</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
       </c>
       <c r="C58">
         <v>0.2</v>
@@ -2255,28 +2511,31 @@
       <c r="E58" t="s">
         <v>10</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58">
         <v>58.3333333333333</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>58.5633116883116</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>57.356804415627899</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>5.8008929093678697E-2</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>20.551228026549001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
         <v>16</v>
-      </c>
-      <c r="B59" t="s">
-        <v>17</v>
       </c>
       <c r="C59">
         <v>0.2</v>
@@ -2287,28 +2546,31 @@
       <c r="E59" t="s">
         <v>11</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59">
         <v>72.142857142857096</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>72.303846946704098</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>70.821240707641394</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>6.1035888535635803E-2</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>27.370454328400701</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
         <v>16</v>
-      </c>
-      <c r="B60" t="s">
-        <v>17</v>
       </c>
       <c r="C60">
         <v>0.2</v>
@@ -2319,28 +2581,31 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60">
         <v>58.809523809523803</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>68.287661218333398</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>59.572405530571402</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>5.80673388072422E-2</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>22.171084489141101</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
         <v>16</v>
-      </c>
-      <c r="B61" t="s">
-        <v>17</v>
       </c>
       <c r="C61">
         <v>0.2</v>
@@ -2351,28 +2616,31 @@
       <c r="E61" t="s">
         <v>13</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61">
         <v>61.6666666666666</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>62.540515040514997</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>58.896423624684402</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>6.0190518697102798E-2</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>22.239442666371598</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
         <v>16</v>
-      </c>
-      <c r="B62" t="s">
-        <v>17</v>
       </c>
       <c r="C62">
         <v>0.5</v>
@@ -2383,28 +2651,31 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62">
         <v>66.6666666666666</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>30.280448717948701</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>38.589015151515099</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>5.2314609289169298E-2</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>10.724606126546799</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s">
         <v>16</v>
-      </c>
-      <c r="B63" t="s">
-        <v>17</v>
       </c>
       <c r="C63">
         <v>0.5</v>
@@ -2415,28 +2686,31 @@
       <c r="E63" t="s">
         <v>10</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63">
         <v>62.499999999999901</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>31.398809523809501</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>34.411764705882298</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>5.6981742382049498E-2</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>11.0814880728721</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
         <v>16</v>
-      </c>
-      <c r="B64" t="s">
-        <v>17</v>
       </c>
       <c r="C64">
         <v>0.5</v>
@@ -2447,28 +2721,31 @@
       <c r="E64" t="s">
         <v>11</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64">
         <v>62.962962962962898</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>30.4112554112554</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>37.819275858491501</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>4.7644535700480099E-2</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>7.7881885104709196</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
         <v>16</v>
-      </c>
-      <c r="B65" t="s">
-        <v>17</v>
       </c>
       <c r="C65">
         <v>0.5</v>
@@ -2479,28 +2756,31 @@
       <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65">
         <v>62.499999999999901</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>27.711038961038899</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>37.232142857142797</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>5.5184125900268499E-2</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>14.468079626560201</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
         <v>16</v>
-      </c>
-      <c r="B66" t="s">
-        <v>17</v>
       </c>
       <c r="C66">
         <v>0.5</v>
@@ -2511,28 +2791,31 @@
       <c r="E66" t="s">
         <v>13</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66">
         <v>54.1666666666666</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>16.9444444444444</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>25.491452991452899</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>5.18654584884643E-2</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>13.2492269575595</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
         <v>16</v>
-      </c>
-      <c r="B67" t="s">
-        <v>17</v>
       </c>
       <c r="C67">
         <v>0.5</v>
@@ -2543,28 +2826,31 @@
       <c r="E67" t="s">
         <v>9</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67">
         <v>64.4444444444444</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>47.303591470258098</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>49.626098302568799</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>5.5374516381157701E-2</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>14.5958873960706</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
         <v>16</v>
-      </c>
-      <c r="B68" t="s">
-        <v>17</v>
       </c>
       <c r="C68">
         <v>0.5</v>
@@ -2575,28 +2861,31 @@
       <c r="E68" t="s">
         <v>10</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68">
         <v>65</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>39.656177156177101</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>45.35520647653</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>6.1747372150421101E-2</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>12.2524836361408</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" t="s">
         <v>16</v>
-      </c>
-      <c r="B69" t="s">
-        <v>17</v>
       </c>
       <c r="C69">
         <v>0.5</v>
@@ -2607,28 +2896,31 @@
       <c r="E69" t="s">
         <v>11</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69">
         <v>64</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>39.307636807636797</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>44.786967418546297</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>5.6538772583007803E-2</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>10.4869519948959</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" t="s">
         <v>16</v>
-      </c>
-      <c r="B70" t="s">
-        <v>17</v>
       </c>
       <c r="C70">
         <v>0.5</v>
@@ -2639,28 +2931,31 @@
       <c r="E70" t="s">
         <v>12</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70">
         <v>76</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>48.759740259740198</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>57.287433155080201</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>5.5548787117004297E-2</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>12.006796884536699</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
         <v>16</v>
-      </c>
-      <c r="B71" t="s">
-        <v>17</v>
       </c>
       <c r="C71">
         <v>0.5</v>
@@ -2671,28 +2966,31 @@
       <c r="E71" t="s">
         <v>13</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71">
         <v>55.5555555555555</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>28.864468864468801</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>37.502374169040799</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>5.1470730039808399E-2</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>12.303878651724901</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" t="s">
         <v>16</v>
-      </c>
-      <c r="B72" t="s">
-        <v>17</v>
       </c>
       <c r="C72">
         <v>0.5</v>
@@ -2703,28 +3001,31 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72">
         <v>59</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>44.1628371628371</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>50.388612836438902</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>5.27789115905761E-2</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>12.742626452445901</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" t="s">
         <v>16</v>
-      </c>
-      <c r="B73" t="s">
-        <v>17</v>
       </c>
       <c r="C73">
         <v>0.5</v>
@@ -2735,28 +3036,31 @@
       <c r="E73" t="s">
         <v>10</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73">
         <v>67.7777777777777</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>60.9689847189847</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>63.106752345882697</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>5.61472309960259E-2</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>14.210269716050799</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" t="s">
         <v>16</v>
-      </c>
-      <c r="B74" t="s">
-        <v>17</v>
       </c>
       <c r="C74">
         <v>0.5</v>
@@ -2767,28 +3071,31 @@
       <c r="E74" t="s">
         <v>11</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74">
         <v>55.252525252525203</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>48.673409923409899</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>50.138044819630501</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>5.8037844571200203E-2</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>12.1649893197146</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" t="s">
         <v>16</v>
-      </c>
-      <c r="B75" t="s">
-        <v>17</v>
       </c>
       <c r="C75">
         <v>0.5</v>
@@ -2799,28 +3106,31 @@
       <c r="E75" t="s">
         <v>12</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75">
         <v>69.230769230769198</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>62.768289402904699</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>63.618547889254103</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>5.7655866329486501E-2</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>10.1104835546933</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" t="s">
         <v>16</v>
-      </c>
-      <c r="B76" t="s">
-        <v>17</v>
       </c>
       <c r="C76">
         <v>0.5</v>
@@ -2831,28 +3141,31 @@
       <c r="E76" t="s">
         <v>13</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76">
         <v>50.864197530864097</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>46.341390091389997</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>46.911884411884401</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>5.7094759411282003E-2</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>15.3147894806332</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" t="s">
         <v>16</v>
-      </c>
-      <c r="B77" t="s">
-        <v>17</v>
       </c>
       <c r="C77">
         <v>0.8</v>
@@ -2863,28 +3176,31 @@
       <c r="E77" t="s">
         <v>9</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77">
         <v>100</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>23.8095238095238</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>38.431372549019599</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>4.21923001607259E-2</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>6.2944810390472403</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" t="s">
         <v>16</v>
-      </c>
-      <c r="B78" t="s">
-        <v>17</v>
       </c>
       <c r="C78">
         <v>0.8</v>
@@ -2895,28 +3211,31 @@
       <c r="E78" t="s">
         <v>10</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78">
         <v>100</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>23.926073926073901</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>38.550420168067198</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>4.4966697692870997E-2</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>9.1148977279662997</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
         <v>16</v>
-      </c>
-      <c r="B79" t="s">
-        <v>17</v>
       </c>
       <c r="C79">
         <v>0.8</v>
@@ -2927,28 +3246,31 @@
       <c r="E79" t="s">
         <v>11</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79">
         <v>100</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>24.5670995670995</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>39.383753501400498</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>5.1919062932332297E-2</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>9.1083041826883893</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" t="s">
         <v>16</v>
-      </c>
-      <c r="B80" t="s">
-        <v>17</v>
       </c>
       <c r="C80">
         <v>0.8</v>
@@ -2959,28 +3281,31 @@
       <c r="E80" t="s">
         <v>12</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80">
         <v>100</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>22.1161191749427</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>36.050420168067198</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>4.9266735712687103E-2</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>9.17870076497395</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" t="s">
         <v>16</v>
-      </c>
-      <c r="B81" t="s">
-        <v>17</v>
       </c>
       <c r="C81">
         <v>0.8</v>
@@ -2991,28 +3316,31 @@
       <c r="E81" t="s">
         <v>13</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81">
         <v>88.8888888888888</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>26.307026307026302</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>40.119047619047599</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>5.9370597203572503E-2</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>8.11453986167907</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
         <v>16</v>
-      </c>
-      <c r="B82" t="s">
-        <v>17</v>
       </c>
       <c r="C82">
         <v>0.8</v>
@@ -3023,28 +3351,31 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82">
         <v>100</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>47.4481074481074</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>63.174603174603099</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>6.28800868988037E-2</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>9.9097594261169402</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
         <v>16</v>
-      </c>
-      <c r="B83" t="s">
-        <v>17</v>
       </c>
       <c r="C83">
         <v>0.8</v>
@@ -3055,28 +3386,31 @@
       <c r="E83" t="s">
         <v>10</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83">
         <v>96</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>40.122655122655097</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>56.219593100398001</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>5.2922630310058498E-2</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>5.21524810791015</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
         <v>16</v>
-      </c>
-      <c r="B84" t="s">
-        <v>17</v>
       </c>
       <c r="C84">
         <v>0.8</v>
@@ -3087,28 +3421,31 @@
       <c r="E84" t="s">
         <v>11</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84">
         <v>88</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>36.507936507936499</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>51.052631578947299</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>4.4833135604858299E-2</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>8.9128071308135901</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" t="s">
         <v>16</v>
-      </c>
-      <c r="B85" t="s">
-        <v>17</v>
       </c>
       <c r="C85">
         <v>0.8</v>
@@ -3119,28 +3456,31 @@
       <c r="E85" t="s">
         <v>12</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85">
         <v>84</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>39.358974358974301</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>52.905982905982903</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>5.3689622879028301E-2</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>5.6173551082611004</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
         <v>16</v>
-      </c>
-      <c r="B86" t="s">
-        <v>17</v>
       </c>
       <c r="C86">
         <v>0.8</v>
@@ -3151,28 +3491,31 @@
       <c r="E86" t="s">
         <v>13</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86">
         <v>90</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>41.378066378066301</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>55.5780476833108</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>5.1224311192830399E-2</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>4.9663453896840402</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
         <v>16</v>
-      </c>
-      <c r="B87" t="s">
-        <v>17</v>
       </c>
       <c r="C87">
         <v>0.8</v>
@@ -3183,28 +3526,31 @@
       <c r="E87" t="s">
         <v>9</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87">
         <v>60</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>43.791625041624997</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>50.229170415505799</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>5.2812542234148198E-2</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>6.2126317705426901</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
         <v>16</v>
-      </c>
-      <c r="B88" t="s">
-        <v>17</v>
       </c>
       <c r="C88">
         <v>0.8</v>
@@ -3215,28 +3561,31 @@
       <c r="E88" t="s">
         <v>10</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88">
         <v>72.857142857142804</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>57.3306245575153</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>62.682490009573499</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>5.2445820399692998E-2</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>3.5288842746189601</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
         <v>16</v>
-      </c>
-      <c r="B89" t="s">
-        <v>17</v>
       </c>
       <c r="C89">
         <v>0.8</v>
@@ -3247,28 +3596,31 @@
       <c r="E89" t="s">
         <v>11</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89">
         <v>70</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>51.202506643683101</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>58.192955882396802</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>4.4758047376360202E-2</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>4.2897881439753904</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
         <v>16</v>
-      </c>
-      <c r="B90" t="s">
-        <v>17</v>
       </c>
       <c r="C90">
         <v>0.8</v>
@@ -3279,28 +3631,31 @@
       <c r="E90" t="s">
         <v>12</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90">
         <v>76.25</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>64.104662698412696</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>67.712321218513097</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>5.4992973804473801E-2</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>5.7364219129085496</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
         <v>16</v>
-      </c>
-      <c r="B91" t="s">
-        <v>17</v>
       </c>
       <c r="C91">
         <v>0.8</v>
@@ -3311,28 +3666,31 @@
       <c r="E91" t="s">
         <v>13</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91">
         <v>71.428571428571402</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>58.235473676650102</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>62.539025271944503</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>5.4093939917428099E-2</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>5.6348299639565598</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C92">
         <v>0.2</v>
@@ -3343,28 +3701,31 @@
       <c r="E92" t="s">
         <v>9</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92">
         <v>36.363636363636303</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>25.8333333333333</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>26.334524061796699</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>5.0859754735773199E-2</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>9.4494082710959599</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C93">
         <v>0.2</v>
@@ -3375,28 +3736,31 @@
       <c r="E93" t="s">
         <v>10</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93">
         <v>22.2222222222222</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>15.1825396825396</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>16.5544085544085</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>4.6089808146158803E-2</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>10.6127192179361</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94">
         <v>0.2</v>
@@ -3407,28 +3771,31 @@
       <c r="E94" t="s">
         <v>11</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94">
         <v>38.461538461538403</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>15.623820623820601</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>21.8509268509268</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>4.7450010593120803E-2</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>16.434375469501202</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C95">
         <v>0.2</v>
@@ -3439,28 +3806,31 @@
       <c r="E95" t="s">
         <v>12</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95">
         <v>35.714285714285701</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>17.287414965986301</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>22.646321932036201</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>4.7715766089303099E-2</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>10.5947266646793</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C96">
         <v>0.2</v>
@@ -3471,28 +3841,31 @@
       <c r="E96" t="s">
         <v>13</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="s">
+        <v>37</v>
+      </c>
+      <c r="G96">
         <v>41.6666666666666</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>20.287698412698401</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>26.753616753616701</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>4.7840853532155302E-2</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>10.1711763143539</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C97">
         <v>0.2</v>
@@ -3503,28 +3876,31 @@
       <c r="E97" t="s">
         <v>9</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97">
         <v>27.272727272727199</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>19.5670995670995</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>22.463597009051501</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>5.1595406098799201E-2</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>11.8652941530401</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C98">
         <v>0.2</v>
@@ -3535,28 +3911,31 @@
       <c r="E98" t="s">
         <v>10</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98">
         <v>26.6666666666666</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>15.3922558922558</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>19.3857808857808</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>5.0290473302205402E-2</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>12.104762379328401</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C99">
         <v>0.2</v>
@@ -3567,28 +3946,31 @@
       <c r="E99" t="s">
         <v>11</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99">
         <v>42.857142857142797</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>37.276057276057202</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>35.878427128427099</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>5.0990240914480997E-2</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>18.705427271979101</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C100">
         <v>0.2</v>
@@ -3599,28 +3981,31 @@
       <c r="E100" t="s">
         <v>12</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100">
         <v>37.3333333333333</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>26.160654160654101</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>29.069745069745</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>5.1766316095987898E-2</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>14.67830397288</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C101">
         <v>0.2</v>
@@ -3631,28 +4016,31 @@
       <c r="E101" t="s">
         <v>13</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="s">
+        <v>38</v>
+      </c>
+      <c r="G101">
         <v>33.3333333333333</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>25.284391534391499</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>28.168960668960601</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>4.94437217712402E-2</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>13.0996543367703</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C102">
         <v>0.2</v>
@@ -3663,28 +4051,31 @@
       <c r="E102" t="s">
         <v>9</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="s">
+        <v>39</v>
+      </c>
+      <c r="G102">
         <v>38.181818181818102</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>46.549258821986001</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>40.921888256534999</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>5.0275239077481298E-2</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>13.251257939772101</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C103">
         <v>0.2</v>
@@ -3695,28 +4086,31 @@
       <c r="E103" t="s">
         <v>10</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103">
         <v>28.6666666666666</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>29.532227032226999</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>28.834802395173899</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>4.8014990488688097E-2</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>12.8863374233245</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C104">
         <v>0.2</v>
@@ -3727,28 +4121,31 @@
       <c r="E104" t="s">
         <v>11</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104">
         <v>33.571428571428498</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>43.452380952380899</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>35.729399137784199</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>4.9021124839782701E-2</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>18.461994562830199</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C105">
         <v>0.2</v>
@@ -3759,28 +4156,31 @@
       <c r="E105" t="s">
         <v>12</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105">
         <v>36</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>41.734968734968703</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>37.941485472445201</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>5.0146913528442298E-2</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>15.3924033482869</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C106">
         <v>0.2</v>
@@ -3791,28 +4191,31 @@
       <c r="E106" t="s">
         <v>13</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106">
         <v>36.153846153846096</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>41.472416472416398</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>37.531310794468602</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>4.83577068035419E-2</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>15.222863142306901</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C107">
         <v>0.5</v>
@@ -3823,28 +4226,31 @@
       <c r="E107" t="s">
         <v>9</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="s">
+        <v>40</v>
+      </c>
+      <c r="G107">
         <v>48.148148148148103</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>26.204906204906202</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>30.1940035273368</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>5.1017496320936398E-2</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>9.2766559123992902</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C108">
         <v>0.5</v>
@@ -3855,28 +4261,31 @@
       <c r="E108" t="s">
         <v>10</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108">
         <v>33.3333333333333</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>18.154761904761902</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>21.484422010737799</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>8.1064614382657094E-2</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>14.9572994275526</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C109">
         <v>0.5</v>
@@ -3887,28 +4296,31 @@
       <c r="E109" t="s">
         <v>11</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="s">
+        <v>40</v>
+      </c>
+      <c r="G109">
         <v>39.393939393939299</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>15.200355200355199</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>21.458818958818899</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>8.9371291073885806E-2</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>11.964126847007</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C110">
         <v>0.5</v>
@@ -3919,28 +4331,31 @@
       <c r="E110" t="s">
         <v>12</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110">
         <v>36.6666666666666</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>14.633699633699599</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>19.8333333333333</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>9.9107718467712394E-2</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>21.743927860260001</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C111">
         <v>0.5</v>
@@ -3951,28 +4366,31 @@
       <c r="E111" t="s">
         <v>13</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111">
         <v>43.3333333333333</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>17.2243589743589</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>22.401515151515099</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>8.1691598892211906E-2</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>11.791987848281799</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C112">
         <v>0.5</v>
@@ -3983,28 +4401,31 @@
       <c r="E112" t="s">
         <v>9</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="s">
+        <v>41</v>
+      </c>
+      <c r="G112">
         <v>40</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>30.262626262626199</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>30.739028944911201</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>4.8769593238830497E-2</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>7.9889422416686999</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C113">
         <v>0.5</v>
@@ -4015,28 +4436,31 @@
       <c r="E113" t="s">
         <v>10</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="s">
+        <v>41</v>
+      </c>
+      <c r="G113">
         <v>38.571428571428498</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>44.112018933447501</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>34.386454986853003</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>4.7733017376491001E-2</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>5.6581594433103204</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C114">
         <v>0.5</v>
@@ -4047,28 +4471,31 @@
       <c r="E114" t="s">
         <v>11</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="s">
+        <v>41</v>
+      </c>
+      <c r="G114">
         <v>38.3333333333333</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>26.8867243867243</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>28.770948836738299</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>4.6369453271230002E-2</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>4.96056111653645</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C115">
         <v>0.5</v>
@@ -4079,28 +4506,31 @@
       <c r="E115" t="s">
         <v>12</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="s">
+        <v>41</v>
+      </c>
+      <c r="G115">
         <v>40</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>30.475774225774199</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>31.420825906120001</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>4.8817435900370201E-2</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>7.07918498913447</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C116">
         <v>0.5</v>
@@ -4111,28 +4541,31 @@
       <c r="E116" t="s">
         <v>13</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="s">
+        <v>41</v>
+      </c>
+      <c r="G116">
         <v>44</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>23.2113997113997</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>29.395553277132201</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>4.94813680648803E-2</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>11.379618811607299</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C117">
         <v>0.5</v>
@@ -4143,28 +4576,31 @@
       <c r="E117" t="s">
         <v>9</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117">
         <v>33.636363636363598</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>29.914731732913499</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>30.705192733900802</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>4.7028476541692503E-2</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>6.7896447181701598</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C118">
         <v>0.5</v>
@@ -4175,28 +4611,31 @@
       <c r="E118" t="s">
         <v>10</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="s">
+        <v>42</v>
+      </c>
+      <c r="G118">
         <v>30.6666666666666</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>37.318699818699798</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>29.445530823105099</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>4.5738871892293198E-2</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>6.6575965086619</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C119">
         <v>0.5</v>
@@ -4207,28 +4646,31 @@
       <c r="E119" t="s">
         <v>11</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="s">
+        <v>42</v>
+      </c>
+      <c r="G119">
         <v>35</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>49.865620490620401</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>37.506825962708298</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>4.7856112321217802E-2</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>4.9595467845598797</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C120">
         <v>0.5</v>
@@ -4239,28 +4681,31 @@
       <c r="E120" t="s">
         <v>12</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="s">
+        <v>42</v>
+      </c>
+      <c r="G120">
         <v>36.923076923076898</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>38.616000013058802</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>36.126085265761297</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>5.0749210210946798E-2</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>8.2902385454911407</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121">
         <v>0.5</v>
@@ -4271,28 +4716,31 @@
       <c r="E121" t="s">
         <v>13</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="s">
+        <v>42</v>
+      </c>
+      <c r="G121">
         <v>43.3333333333333</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>40.234159779614302</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>40.683250826791401</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>4.8152273351495897E-2</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>10.0779380581595</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C122">
         <v>0.8</v>
@@ -4303,28 +4751,31 @@
       <c r="E122" t="s">
         <v>9</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="s">
+        <v>43</v>
+      </c>
+      <c r="G122">
         <v>72.222200000000001</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>18.780899999999999</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>29.228899999999999</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>5.0560099737984698E-2</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>3.4502889428819898</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C123">
         <v>0.8</v>
@@ -4335,28 +4786,31 @@
       <c r="E123" t="s">
         <v>10</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="s">
+        <v>43</v>
+      </c>
+      <c r="G123">
         <v>77.777799999999999</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>17.394300000000001</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>28.402200000000001</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>5.0560099737984698E-2</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>3.45028843488199</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C124">
         <v>0.8</v>
@@ -4367,28 +4821,31 @@
       <c r="E124" t="s">
         <v>11</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="s">
+        <v>43</v>
+      </c>
+      <c r="G124">
         <v>72.222200000000001</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>14.8683</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>24.5732</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>4.3963167402479297E-2</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>3.5358509222666399</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C125">
         <v>0.8</v>
@@ -4399,28 +4856,31 @@
       <c r="E125" t="s">
         <v>12</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="s">
+        <v>43</v>
+      </c>
+      <c r="G125">
         <v>66.666700000000006</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>15.367100000000001</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>24.545400000000001</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>4.63674664497375E-2</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>3.05017262697219</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C126">
         <v>0.8</v>
@@ -4431,28 +4891,31 @@
       <c r="E126" t="s">
         <v>13</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="s">
+        <v>43</v>
+      </c>
+      <c r="G126">
         <v>77.777799999999999</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>20.116</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>31.3916</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>4.5581658681233699E-2</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>4.0701359113057398</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C127">
         <v>0.8</v>
@@ -4463,28 +4926,31 @@
       <c r="E127" t="s">
         <v>9</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="s">
+        <v>44</v>
+      </c>
+      <c r="G127">
         <v>51.428571428571402</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>26.820728291316499</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>34.076950618303997</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>5.0560099737984698E-2</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>3.4502889428819898</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C128">
         <v>0.8</v>
@@ -4495,28 +4961,31 @@
       <c r="E128" t="s">
         <v>10</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="s">
+        <v>44</v>
+      </c>
+      <c r="G128">
         <v>64.4444444444444</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>32.122921559196001</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>41.511544011543997</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>4.3963167402479297E-2</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>3.5358509222666399</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C129">
         <v>0.8</v>
@@ -4527,28 +4996,31 @@
       <c r="E129" t="s">
         <v>11</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="s">
+        <v>44</v>
+      </c>
+      <c r="G129">
         <v>57.5</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>26.124533146591901</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>35.404889228418597</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>4.63674664497375E-2</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>3.05017262697219</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C130">
         <v>0.8</v>
@@ -4559,28 +5031,31 @@
       <c r="E130" t="s">
         <v>12</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="s">
+        <v>44</v>
+      </c>
+      <c r="G130">
         <v>57.142857142857103</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>29.2176870748299</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>37.212731246344603</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>4.3443850108555303E-2</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>3.2437280246189601</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C131">
         <v>0.8</v>
@@ -4591,28 +5066,31 @@
       <c r="E131" t="s">
         <v>13</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="s">
+        <v>44</v>
+      </c>
+      <c r="G131">
         <v>60</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>28.815819597069599</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>38.163568457686097</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>5.1000803709030103E-2</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>5.4241398870944897</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C132">
         <v>0.8</v>
@@ -4623,28 +5101,31 @@
       <c r="E132" t="s">
         <v>9</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="s">
+        <v>45</v>
+      </c>
+      <c r="G132">
         <v>46.25</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>39.913230044808898</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>40.620177814249999</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>5.1920533180236803E-2</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>2.82319468259811</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C133">
         <v>0.8</v>
@@ -4655,28 +5136,31 @@
       <c r="E133" t="s">
         <v>10</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="s">
+        <v>45</v>
+      </c>
+      <c r="G133">
         <v>43</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>43.353041695146899</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>40.277829462093301</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>4.5699238777160603E-2</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>1.93672797679901</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C134">
         <v>0.8</v>
@@ -4687,28 +5171,31 @@
       <c r="E134" t="s">
         <v>11</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="s">
+        <v>45</v>
+      </c>
+      <c r="G134">
         <v>38.8888888888888</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>37.014991181657798</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>35.65502074274</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>4.4277509053548103E-2</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>3.00155040952894</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C135">
         <v>0.8</v>
@@ -4719,28 +5206,31 @@
       <c r="E135" t="s">
         <v>12</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="s">
+        <v>45</v>
+      </c>
+      <c r="G135">
         <v>47.7777777777777</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>50.489417989417902</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>46.766800737388898</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>5.0080961651272203E-2</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>3.2687486012776601</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C136">
         <v>0.8</v>
@@ -4751,19 +5241,22 @@
       <c r="E136" t="s">
         <v>13</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="s">
+        <v>45</v>
+      </c>
+      <c r="G136">
         <v>34.197530864197503</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>32.431149097815698</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>31.973199907982501</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>4.5581658681233699E-2</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>4.0701359113057398</v>
       </c>
     </row>
